--- a/evaluation/1_Run_Dominik/Test_Evaluation_Dominik_Combined.xlsx
+++ b/evaluation/1_Run_Dominik/Test_Evaluation_Dominik_Combined.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domin\IdeaProjects\zhaw-dsp-munot\evaluation\1_Run_Dominik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD257307-E0B7-440D-89CB-BB8630A4E1FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C330FD7A-40EA-4509-A6FA-12FFF5FA1083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="55">
   <si>
     <t>File</t>
   </si>
@@ -72,6 +73,135 @@
   </si>
   <si>
     <t>% Diffrent</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>6723cf1d72072ae06f1746cc</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>6723dd8484848ad2291e84d0</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>6723e7db80542ceb71403387</t>
+  </si>
+  <si>
+    <t>6723e96e3457caecb0d392c3</t>
+  </si>
+  <si>
+    <t>6723eab2650f9e3c4857b508</t>
+  </si>
+  <si>
+    <t>6723ead2650f9e3c4857b509</t>
+  </si>
+  <si>
+    <t>673cd85c1f090fd512f26424</t>
+  </si>
+  <si>
+    <t>673cd8881f090fd512f26425</t>
+  </si>
+  <si>
+    <t>673cd8981f090fd512f26426</t>
+  </si>
+  <si>
+    <t>673cd8ac1f090fd512f26427</t>
+  </si>
+  <si>
+    <t>673cd90f1f090fd512f26429</t>
+  </si>
+  <si>
+    <t>673cd9191f090fd512f2642a</t>
+  </si>
+  <si>
+    <t>673cd9271f090fd512f2642b</t>
+  </si>
+  <si>
+    <t>673cd9301f090fd512f2642c</t>
+  </si>
+  <si>
+    <t>673cd9a81f090fd512f2642f</t>
+  </si>
+  <si>
+    <t>673cd9b61f090fd512f26430</t>
+  </si>
+  <si>
+    <t>673cd9c31f090fd512f26431</t>
+  </si>
+  <si>
+    <t>673cd9d11f090fd512f26432</t>
+  </si>
+  <si>
+    <t>673cd9ef1f090fd512f26434</t>
+  </si>
+  <si>
+    <t>673cda061f090fd512f26435</t>
+  </si>
+  <si>
+    <t>673cda111f090fd512f26436</t>
+  </si>
+  <si>
+    <t>673cda1c1f090fd512f26437</t>
+  </si>
+  <si>
+    <t>673cda411f090fd512f26439</t>
+  </si>
+  <si>
+    <t>673cda4d1f090fd512f2643a</t>
+  </si>
+  <si>
+    <t>673cda5d1f090fd512f2643b</t>
+  </si>
+  <si>
+    <t>673cda691f090fd512f2643c</t>
+  </si>
+  <si>
+    <t>673cda891f090fd512f2643e</t>
+  </si>
+  <si>
+    <t>673cda961f090fd512f2643f</t>
+  </si>
+  <si>
+    <t>673cdaa11f090fd512f26440</t>
+  </si>
+  <si>
+    <t>673cdabe1f090fd512f26442</t>
+  </si>
+  <si>
+    <t>673cdaca1f090fd512f26443</t>
+  </si>
+  <si>
+    <t>673cdad61f090fd512f26444</t>
+  </si>
+  <si>
+    <t>673cdae11f090fd512f26445</t>
+  </si>
+  <si>
+    <t>Feli</t>
+  </si>
+  <si>
+    <t>Ikenna</t>
+  </si>
+  <si>
+    <t>Michelle</t>
+  </si>
+  <si>
+    <t>Pascal</t>
+  </si>
+  <si>
+    <t>Roman</t>
+  </si>
+  <si>
+    <t>GPT</t>
+  </si>
+  <si>
+    <t>Adrian</t>
   </si>
 </sst>
 </file>
@@ -87,15 +217,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -103,12 +245,218 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -391,17 +739,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -421,7 +769,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -444,7 +792,7 @@
         <v>21.212121212121211</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -467,7 +815,7 @@
         <v>12.121212121212121</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -490,7 +838,7 @@
         <v>9.0909090909090899</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -513,7 +861,7 @@
         <v>6.0606060606060606</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -536,7 +884,7 @@
         <v>12.121212121212121</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -559,7 +907,7 @@
         <v>18.18181818181818</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -587,4 +935,920 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2878FE-603B-4506-8C68-06F68464AAA9}">
+  <dimension ref="D10:K44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="81" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.9296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="4:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="11" spans="4:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="4:11" x14ac:dyDescent="0.45">
+      <c r="D12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="4:11" x14ac:dyDescent="0.45">
+      <c r="D13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="4:11" x14ac:dyDescent="0.45">
+      <c r="D14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="4:11" x14ac:dyDescent="0.45">
+      <c r="D15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="4:11" x14ac:dyDescent="0.45">
+      <c r="D16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="4:11" x14ac:dyDescent="0.45">
+      <c r="D17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="4:11" x14ac:dyDescent="0.45">
+      <c r="D18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="4:11" x14ac:dyDescent="0.45">
+      <c r="D19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="4:11" x14ac:dyDescent="0.45">
+      <c r="D20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="4:11" x14ac:dyDescent="0.45">
+      <c r="D21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="4:11" x14ac:dyDescent="0.45">
+      <c r="D22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="4:11" x14ac:dyDescent="0.45">
+      <c r="D23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="4:11" x14ac:dyDescent="0.45">
+      <c r="D24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="4:11" x14ac:dyDescent="0.45">
+      <c r="D25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="4:11" x14ac:dyDescent="0.45">
+      <c r="D26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="4:11" x14ac:dyDescent="0.45">
+      <c r="D27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="4:11" x14ac:dyDescent="0.45">
+      <c r="D28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="4:11" x14ac:dyDescent="0.45">
+      <c r="D29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K29" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="4:11" x14ac:dyDescent="0.45">
+      <c r="D30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="4:11" x14ac:dyDescent="0.45">
+      <c r="D31" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="4:11" x14ac:dyDescent="0.45">
+      <c r="D32" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="4:11" x14ac:dyDescent="0.45">
+      <c r="D33" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="4:11" x14ac:dyDescent="0.45">
+      <c r="D34" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K34" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="4:11" x14ac:dyDescent="0.45">
+      <c r="D35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="4:11" x14ac:dyDescent="0.45">
+      <c r="D36" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K36" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="4:11" x14ac:dyDescent="0.45">
+      <c r="D37" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="4:11" x14ac:dyDescent="0.45">
+      <c r="D38" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="4:11" x14ac:dyDescent="0.45">
+      <c r="D39" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K39" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="4:11" x14ac:dyDescent="0.45">
+      <c r="D40" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K40" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="4:11" x14ac:dyDescent="0.45">
+      <c r="D41" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K41" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="4:11" x14ac:dyDescent="0.45">
+      <c r="D42" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K42" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="4:11" x14ac:dyDescent="0.45">
+      <c r="D43" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K43" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="4:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D44" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I44" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J44" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="K44" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G12:K12">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>